--- a/excel/assignments/Assignment3c_Workbook.xlsx
+++ b/excel/assignments/Assignment3c_Workbook.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="March" sheetId="3" r:id="rId1"/>
+    <sheet name="März" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -135,15 +135,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>heidi.lee@vestainsurance.com</t>
   </si>
   <si>
@@ -324,7 +315,16 @@
     <t>William</t>
   </si>
   <si>
-    <t>Webinar Training Log</t>
+    <t>Email Addresse</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Webinar Anwesenheitsliste</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -816,13 +816,13 @@
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7">
         <v>41334</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>37</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>37</v>
@@ -926,13 +926,13 @@
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>37</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -966,13 +966,13 @@
     </row>
     <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>37</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="12" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="13" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="14" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>37</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="15" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
@@ -1066,13 +1066,13 @@
     </row>
     <row r="16" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>37</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="17" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
@@ -1106,13 +1106,13 @@
     </row>
     <row r="18" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>37</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>37</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="20" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>37</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="21" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="22" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>37</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="23" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>37</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="24" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="25" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="26" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>37</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="27" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>37</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="28" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>37</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="29" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>37</v>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="30" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>37</v>
@@ -1372,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>37</v>
@@ -1386,13 +1386,13 @@
     </row>
     <row r="32" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>37</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="33" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>37</v>
@@ -1426,13 +1426,13 @@
     </row>
     <row r="34" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>37</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="35" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>37</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="36" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>37</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="37" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>37</v>
